--- a/biology/Médecine/Yves_Pélicier/Yves_Pélicier.xlsx
+++ b/biology/Médecine/Yves_Pélicier/Yves_Pélicier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yves_P%C3%A9licier</t>
+          <t>Yves_Pélicier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yves Pélicier, né à Alger, le 12 août 1926 et mort le 9 décembre 1996, est un psychiatre et professeur de psychiatrie générale et de psychologie clinique à l'université Paris Descartes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yves_P%C3%A9licier</t>
+          <t>Yves_Pélicier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il effectue ses études de médecine à Alger, avant d'être rapatrié en France. Il est professeur de psychiatrie à la faculté de médecine de Necker (1975-1991), et il fonde un DEA d'éthique biomédicale au sein de l'université René-Descartes à Paris. Il est l'auteur de nombreux ouvrages, notamment un « Que sais-je ? » sur la drogue, en 1972, avec Guy Thuillier[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il effectue ses études de médecine à Alger, avant d'être rapatrié en France. Il est professeur de psychiatrie à la faculté de médecine de Necker (1975-1991), et il fonde un DEA d'éthique biomédicale au sein de l'université René-Descartes à Paris. Il est l'auteur de nombreux ouvrages, notamment un « Que sais-je ? » sur la drogue, en 1972, avec Guy Thuillier. 
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yves_P%C3%A9licier</t>
+          <t>Yves_Pélicier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Classification des psychotropes établie par Pelicier et Thuillier (1991)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec Jean Thuillier, ils reprennent la classification des psychotropes établie par Jean Delay et Pierre Deniker en 1957, qui distingue les substances psychotropes en fonction de leur activité sur le système nerveux central (SNC), et ils la modernisent.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yves_P%C3%A9licier</t>
+          <t>Yves_Pélicier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il était notamment président de la Société européenne de psychiatrie sociale et président d'honneur de la Société française de psycho-oncologie.</t>
         </is>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yves_P%C3%A9licier</t>
+          <t>Yves_Pélicier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,7 +621,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Yves Pelicier, Guide psychiatrique pour le praticien, Paris, Éditions Masson et Cie, 1968, 189 p. (BNF 33131480) (3 rééd.)
 Yves Pélicier et Guy Thuillier, La drogue, Paris, Presses Universitaires de France, coll. « Que sais-je? », 1972, 127 p.  (ISBN 978-2130448433) (7 rééd.)
